--- a/Data/data_curation/Evolutions numériques en archives_31 juillet 2025_20.57.xlsx
+++ b/Data/data_curation/Evolutions numériques en archives_31 juillet 2025_20.57.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rroll\Documents\GitHub\Memoire_Master\Memoire\Data\data_curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1251BD0-0515-4236-9FC7-DBA24EDCF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CF78A9-698C-474D-95EB-766BD897E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FA644F-5661-4DC1-BEBF-43DCFFC3E275}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -1679,87 +1679,127 @@
         <v>80</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" ref="A6:F6" si="0">AVERAGE(A2:A5)</f>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>88.75</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>73.75</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>73.75</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8">
-        <v>89</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>AVERAGE(A2:A6)</f>
+        <v>89.2</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(D2:D6)</f>
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(E2:E6)</f>
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(F2:F6)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9">
-        <v>88.75</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>73.75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11">
-        <v>73.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>118</v>
       </c>
-      <c r="B13">
-        <v>76.25</v>
+      <c r="B14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
